--- a/tests/testthat/fixtures/ex2/tables/dif_poly_sex.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/dif_poly_sex.xlsx
@@ -516,16 +516,16 @@
         <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>26345</v>
+        <v>26042</v>
       </c>
       <c r="E2" t="n">
         <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>26399</v>
+        <v>26096</v>
       </c>
       <c r="G2" t="n">
-        <v>26542</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="3">
@@ -539,16 +539,16 @@
         <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>26323</v>
+        <v>26022</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>26409</v>
+        <v>26108</v>
       </c>
       <c r="G3" t="n">
-        <v>26638</v>
+        <v>26336</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3">
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -656,16 +656,16 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>0.063</v>
+        <v>0.031</v>
       </c>
       <c r="C2" t="n">
         <v>0.093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.052</v>
+        <v>0.025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.459</v>
+        <v>0.111</v>
       </c>
       <c r="F2" t="n">
         <v>88.573</v>
@@ -685,16 +685,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D3" t="n">
         <v>-0.042</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.035</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.228</v>
+        <v>0.355</v>
       </c>
       <c r="F3" t="n">
         <v>88.573</v>
@@ -714,16 +714,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.046</v>
+        <v>-0.064</v>
       </c>
       <c r="C4" t="n">
         <v>0.062</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.038</v>
+        <v>-0.051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55</v>
+        <v>1.066</v>
       </c>
       <c r="F4" t="n">
         <v>88.573</v>
@@ -743,16 +743,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.044</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.036</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.288</v>
+        <v>0.439</v>
       </c>
       <c r="F5" t="n">
         <v>88.573</v>
@@ -772,16 +772,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.027</v>
+        <v>-0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.022</v>
+        <v>-0.014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.114</v>
+        <v>0.044</v>
       </c>
       <c r="F6" t="n">
         <v>88.573</v>
@@ -801,16 +801,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.013</v>
+        <v>-0.03</v>
       </c>
       <c r="C7" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.011</v>
+        <v>-0.024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.027</v>
+        <v>0.141</v>
       </c>
       <c r="F7" t="n">
         <v>88.573</v>
@@ -830,16 +830,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.077</v>
+        <v>0.052</v>
       </c>
       <c r="C8" t="n">
         <v>0.054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.063</v>
+        <v>0.042</v>
       </c>
       <c r="E8" t="n">
-        <v>2.033</v>
+        <v>0.927</v>
       </c>
       <c r="F8" t="n">
         <v>88.573</v>
@@ -859,16 +859,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>0.252</v>
+        <v>0.247</v>
       </c>
       <c r="C9" t="n">
         <v>0.078</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207</v>
+        <v>0.198</v>
       </c>
       <c r="E9" t="n">
-        <v>10.438</v>
+        <v>10.028</v>
       </c>
       <c r="F9" t="n">
         <v>88.573</v>
@@ -888,16 +888,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.058</v>
+        <v>0.075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.048</v>
+        <v>0.06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.567</v>
+        <v>0.925</v>
       </c>
       <c r="F10" t="n">
         <v>88.573</v>
@@ -917,16 +917,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>0.138</v>
+        <v>0.062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113</v>
+        <v>0.05</v>
       </c>
       <c r="E11" t="n">
-        <v>3.13</v>
+        <v>0.616</v>
       </c>
       <c r="F11" t="n">
         <v>88.573</v>
@@ -946,16 +946,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>0.065</v>
+        <v>0.186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.053</v>
+        <v>0.149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.66</v>
+        <v>5.273</v>
       </c>
       <c r="F12" t="n">
         <v>88.573</v>
@@ -975,16 +975,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.129</v>
+        <v>0.047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.082</v>
+        <v>0.084</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.106</v>
+        <v>0.038</v>
       </c>
       <c r="E13" t="n">
-        <v>2.475</v>
+        <v>0.313</v>
       </c>
       <c r="F13" t="n">
         <v>88.573</v>
@@ -1004,16 +1004,16 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>0.098</v>
+        <v>-0.103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.085</v>
+        <v>0.086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.081</v>
+        <v>-0.082</v>
       </c>
       <c r="E14" t="n">
-        <v>1.329</v>
+        <v>1.434</v>
       </c>
       <c r="F14" t="n">
         <v>88.573</v>
@@ -1033,16 +1033,16 @@
         <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.209</v>
+        <v>-0.224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.172</v>
+        <v>-0.179</v>
       </c>
       <c r="E15" t="n">
-        <v>17.472</v>
+        <v>19.291</v>
       </c>
       <c r="F15" t="n">
         <v>88.573</v>
@@ -1062,16 +1062,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>0.032</v>
+        <v>-0.014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.098</v>
+        <v>0.101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.026</v>
+        <v>-0.011</v>
       </c>
       <c r="E16" t="n">
-        <v>0.107</v>
+        <v>0.019</v>
       </c>
       <c r="F16" t="n">
         <v>88.573</v>
@@ -1091,16 +1091,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.198</v>
+        <v>-0.179</v>
       </c>
       <c r="C17" t="n">
         <v>0.046</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.163</v>
+        <v>-0.143</v>
       </c>
       <c r="E17" t="n">
-        <v>18.527</v>
+        <v>15.142</v>
       </c>
       <c r="F17" t="n">
         <v>88.573</v>
@@ -1120,16 +1120,16 @@
         <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>0.076</v>
+        <v>-0.041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309</v>
+        <v>0.312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.062</v>
+        <v>-0.033</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06</v>
+        <v>0.017</v>
       </c>
       <c r="F18" t="n">
         <v>88.573</v>
@@ -1174,10 +1174,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.322</v>
+        <v>-0.34</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.265</v>
+        <v>-0.272</v>
       </c>
     </row>
     <row r="3">
@@ -1185,10 +1185,10 @@
         <v>44</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.232</v>
+        <v>-0.242</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.191</v>
+        <v>-0.194</v>
       </c>
     </row>
   </sheetData>
